--- a/code/output/rankingsss.xlsx
+++ b/code/output/rankingsss.xlsx
@@ -352,18 +352,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P28" sqref="E1:P28"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,70 +681,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9">
-        <v>0.67580278889381951</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="7">
+        <v>0.62930297475441677</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9">
-        <v>0.66669514280546061</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="7">
+        <v>0.59616261900455048</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>0.8777204302395073</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.8906446199292023</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.9523467268343806</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="7">
         <v>0.92164785879354261</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="9">
-        <v>0.75644680511964335</v>
+      <c r="P2" s="7">
+        <v>0.72087152280308342</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -752,1075 +752,1075 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.66778494073201689</v>
-      </c>
-      <c r="G3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.61875109890712932</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="9">
-        <v>0.64906766426954443</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="7">
+        <v>0.59022305355795368</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>0.76229987765475538</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.88553109795602247</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.93839352507708051</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <v>0.9125823671831782</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="9">
-        <v>0.70538573429856932</v>
+      <c r="P3" s="7">
+        <v>0.68239151326767855</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.66690350572053925</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.61366265566074041</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9">
-        <v>0.64251386928108911</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="7">
+        <v>0.57559489106757422</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="9">
-        <v>0.66598220634206018</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0.87124855691168357</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="J4" s="7">
+        <v>0.68496247672091481</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.93361612570819197</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>0.89116847413249678</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="9">
-        <v>0.69634176408722004</v>
+      <c r="P4" s="7">
+        <v>0.67351394140477838</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.6637840860826314</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.6133784931573617</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9">
-        <v>0.63942665952548228</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.59499916099287042</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.8706936074076902</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="H5" s="7">
+        <v>0.5567722162712353</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.62865770998508685</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.90313308132536307</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>0.87852612570648658</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="9">
-        <v>0.68962363397714532</v>
+      <c r="P5" s="7">
+        <v>0.66277876826481985</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.6095457058223982</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="9">
-        <v>0.66246561533908666</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.62301987847512119</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.59418033849215746</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.86006334254624217</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="H6" s="7">
+        <v>0.55009989872926768</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.61544722791775686</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.89231549859846493</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="7">
         <v>0.87750984372084451</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="9">
-        <v>0.67336371240401105</v>
+      <c r="P6" s="7">
+        <v>0.6574020885069416</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.65255642082131393</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.60774810043635652</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="9">
-        <v>0.60356149729247199</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.58761349768031024</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.85661072483515954</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="H7" s="7">
+        <v>0.51463458107705995</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.59418033849215746</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.89131838927292839</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <v>0.85469242034749104</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0.67240174751252413</v>
+      <c r="O7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.64852340717351575</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="9">
-        <v>0.64306900739426709</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.58407881375862836</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="F8" s="7">
+        <v>0.5955389079310498</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.5067675038545868</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="9">
-        <v>0.58330264886759797</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0.85401293940900702</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="J8" s="7">
+        <v>0.59024346006693407</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.88713316780622786</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="7">
         <v>0.8431442729997789</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0.66544045420580611</v>
+      <c r="O8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.64434171390837236</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.63538150901137147</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="9">
-        <v>0.57652100462550415</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="F9" s="7">
+        <v>0.58872363283843743</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.50048234479885689</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="9">
-        <v>0.56991277143266872</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.84155133316205444</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="J9" s="7">
+        <v>0.57824610476613936</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.86844569847961872</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="7">
         <v>0.80059714486757982</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0.6608490488834875</v>
+      <c r="O9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.64095097966344761</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.6346460613393734</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.57857012065204849</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="9">
-        <v>0.57493797922996526</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.56752724433311996</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="H10" s="7">
+        <v>0.4968649826916377</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.56765762361484839</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.86292390301928512</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.79829870667035085</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="9">
-        <v>0.83791273310291592</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0.79829870667035085</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0.65910452727534674</v>
+      <c r="P10" s="7">
+        <v>0.63972555688762711</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="9">
-        <v>0.63383976118100938</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="7">
+        <v>0.57802021160149708</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="9">
-        <v>0.56657181532008261</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.55152098108056413</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.83691351177485429</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="H11" s="7">
+        <v>0.49672651276673552</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.56752724433311996</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.85878150250047103</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>0.75911084038821253</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0.65606597699074398</v>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.63521257137898435</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.62911775986035556</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.57121968822138636</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.48999113317146081</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.54829811363826475</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="9">
-        <v>0.56249410833747004</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.53996478055961306</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0.83585772202064101</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="L12" s="7">
+        <v>0.8535675876659925</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>0.70656833943213992</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="9">
-        <v>0.65373408881410411</v>
+      <c r="P12" s="7">
+        <v>0.62838408806130885</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.62689455573463171</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.56218935980575302</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.57000904670667507</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.48574509028122503</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="9">
-        <v>0.53328352175724036</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0.81511096266312488</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="J13" s="7">
+        <v>0.54453352175688108</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.84828334395878779</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <v>0.69170502175303183</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="9">
-        <v>0.64009221128648952</v>
+      <c r="P13" s="7">
+        <v>0.62105749584951186</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.56876063807088117</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.48382124048403102</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.54317320530019286</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="9">
-        <v>0.62226847508475391</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.55358548858083723</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.53321080584750513</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0.80895137775287151</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="L14" s="7">
+        <v>0.84371631067464159</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>0.67491690542969718</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="9">
-        <v>0.63810193284626182</v>
+      <c r="P14" s="7">
+        <v>0.62068339638191772</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.5669560602920326</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="9">
-        <v>0.62104895222471135</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.55280132981453611</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="7">
+        <v>0.48141777484544673</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="9">
-        <v>0.52794039298337514</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.80571705000298788</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="J15" s="7">
+        <v>0.54216632935049913</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.822675686861851</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>0.63454776947214342</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="9">
-        <v>0.62040982722015603</v>
+      <c r="P15" s="7">
+        <v>0.60346956677934582</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.61651721127319059</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.54698565884022576</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0.52591196927310868</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0.78230745499673071</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.56144388002099532</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.47134903486415586</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.54154413938884349</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.81936745038653669</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>0.61451322703004962</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="9">
-        <v>0.61044295638307899</v>
+      <c r="P16" s="7">
+        <v>0.59123412939974984</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.61309075626996057</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.56005862056032663</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.46827496641837907</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.53424530235176038</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.81807714175793311</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9">
-        <v>0.54591884183698702</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0.51663214097980381</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0.77630804228545147</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <v>0.60992380630257415</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="9">
-        <v>0.61013417047969887</v>
+      <c r="P17" s="7">
+        <v>0.58705182108613008</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9">
-        <v>0.60640197444739663</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.5361299597020549</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.50234827043227226</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.77476809430667692</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="F18" s="7">
+        <v>0.54622780120936565</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.4645713823668548</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.51831699023200639</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.81790679261722965</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="7">
         <v>0.60963619503124855</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P18" s="9">
-        <v>0.6048413563917806</v>
+      <c r="P18" s="7">
+        <v>0.573368225348584</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="9">
-        <v>0.60498730813572499</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.53372813709554334</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="F19" s="7">
+        <v>0.54419335061271079</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.45906026283492013</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.51445603804034301</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.8113889256229867</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="9">
-        <v>0.50165032356533334</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0.76556861822176181</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="N19" s="7">
         <v>0.53984611084859058</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="9">
-        <v>0.59170966461293861</v>
+      <c r="P19" s="7">
+        <v>0.57265501910119787</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="9">
-        <v>0.60384788667578304</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.52947231540190409</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.50033954547741233</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0.76403010678153283</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="F20" s="7">
+        <v>0.53782253444734762</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="9">
+      <c r="H20" s="7">
+        <v>0.45760678091295282</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.51103676050736235</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.80520046244497734</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="7">
         <v>0.52322291811326105</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P20" s="9">
-        <v>0.58508763201795888</v>
+      <c r="P20" s="7">
+        <v>0.56369126428501859</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="9">
-        <v>0.60265989871882608</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="7">
+        <v>0.53740350071671894</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="9">
-        <v>0.52031580027963575</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0.49170793350980058</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.7603272545914217</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="H21" s="7">
+        <v>0.44742983356636318</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.50936364243928867</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.79954634177475448</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="7">
         <v>0.52197274845104458</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="9">
-        <v>0.57953400112946118</v>
+      <c r="P21" s="7">
+        <v>0.56002260959724437</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="9">
-        <v>0.58884015977843474</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="7">
+        <v>0.52760638608978938</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="9">
-        <v>0.51158528512278278</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.49070894251730179</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="H22" s="7">
+        <v>0.44140440426898564</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.5076922007812904</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="9">
-        <v>0.75660910882071652</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="L22" s="7">
+        <v>0.79536789132847452</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="7">
         <v>0.47518353588825141</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="9">
-        <v>0.57006036438596863</v>
+      <c r="P22" s="7">
+        <v>0.54988078231614246</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="9">
-        <v>0.55703840681550765</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="7">
+        <v>0.49755355217936253</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="9">
-        <v>0.5041810270829119</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0.48871193040243865</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0.75052408577228957</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="H23" s="7">
+        <v>0.42731752256909328</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.4974401637514631</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.79027963792837341</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="7">
         <v>0.46454290321753533</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" s="9">
-        <v>0.56367157565690296</v>
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.53851398912057047</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="9">
-        <v>0.55596735992184942</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="7">
+        <v>0.48597862153943655</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="9">
-        <v>0.49610534209049439</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="H24" s="7">
+        <v>0.42342111840874536</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="9">
-        <v>0.47590770256451215</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="7">
+        <v>0.48737216334152739</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="9">
-        <v>0.74654377104402991</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="L24" s="7">
+        <v>0.78685072272631962</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="7">
         <v>0.46278042867221669</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0.55643506729957004</v>
+      <c r="O24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.53264973557208717</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="9">
-        <v>0.55341439952215199</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="7">
+        <v>0.48036150554733331</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="9">
-        <v>0.48460183126846573</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="H25" s="7">
+        <v>0.41550152605705476</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="9">
-        <v>0.46695452904675822</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0.74070829088054868</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="J25" s="7">
+        <v>0.4842738284040024</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.78331028219807919</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="7">
         <v>0.4202226552493778</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0.55167202635074863</v>
+      <c r="O25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.52957766644373161</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="9">
-        <v>0.54852646527346605</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="7">
+        <v>0.47871619307468971</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="9">
-        <v>0.47330509824865402</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="H26" s="7">
+        <v>0.40208758187387839</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="9">
-        <v>0.46265134827350063</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0.73915990697699474</v>
-      </c>
-      <c r="M26" s="5" t="s">
+      <c r="J26" s="7">
+        <v>0.47931801519353479</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.72732884351956439</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="7">
         <v>0.378559007696394</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26" s="9">
-        <v>0.546397182409878</v>
+      <c r="O26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.52892007490709059</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="9">
-        <v>0.52073442806063353</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="7">
+        <v>0.44872548962593001</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="9">
-        <v>0.47006731746226393</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="7">
+        <v>0.4012227645518866</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="9">
-        <v>0.45393717051691879</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0.72618724183757055</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="J27" s="7">
+        <v>0.47365033571726234</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.70523345838914109</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="7">
         <v>0.35746739318874643</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="9">
-        <v>0.51191857666157792</v>
+      <c r="P27" s="7">
+        <v>0.49348861649347159</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="10">
-        <v>0.51581368795716964</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="8">
+        <v>0.44190772034532061</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="10">
-        <v>0.43056091701610916</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="H28" s="8">
+        <v>0.363800764180091</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10">
-        <v>0.41193801892272364</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0.67514817102533231</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="J28" s="8">
+        <v>0.42810635662248275</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.69552080629497248</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="8">
         <v>0.34015922377495256</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P28" s="10">
-        <v>0.50503705614222327</v>
+      <c r="P28" s="8">
+        <v>0.48248267053246108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F28">
     <cfRule type="colorScale" priority="18">
